--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958597.6596712619</v>
+        <v>987301.385862855</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7460876.437197582</v>
+        <v>8091537.580911496</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>166.3858967979657</v>
+        <v>386.1545801108206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -719,7 +721,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.7373013332754</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>27.04994524717083</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>294.3155467214279</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>40.40265154617769</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1057,10 +1059,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>25.13775189891257</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>266.111130628615</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1136,22 +1138,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>145.5129568054721</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>102.0412378013749</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1351,13 +1353,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.4264837915259</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>116.9961598500769</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1382,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1613,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>161.5086652982957</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.10096724313623</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1825,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>114.7992701710632</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2002,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>149.1427835161697</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>226.5878864637974</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.31517967031825</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>77.34040729634128</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>47.37384610069613</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>232.5685150407351</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2959,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>69.83767438078995</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>104.6990357918479</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.08522180429955</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>293.6467854709116</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>101.9929615813387</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>160.9061021023308</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>259.1193277453538</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.4695914740406</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1831.749379500454</v>
+        <v>937.8383686740289</v>
       </c>
       <c r="C2" t="n">
-        <v>1404.848649513754</v>
+        <v>914.9780427277331</v>
       </c>
       <c r="D2" t="n">
-        <v>981.5560286987543</v>
+        <v>895.7258259531374</v>
       </c>
       <c r="E2" t="n">
-        <v>555.5790888466119</v>
+        <v>873.789290141399</v>
       </c>
       <c r="F2" t="n">
-        <v>387.5125264244243</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>417.0520770886785</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
-        <v>1090.853728201993</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>1764.655379315307</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2260.574204588538</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>2260.574204588538</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X2" t="n">
-        <v>1848.854205756285</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y2" t="n">
-        <v>1847.55733975158</v>
+        <v>953.6463289251549</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>999.9477586646882</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>999.9477586646882</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>999.9477586646882</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>956.2629204377495</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="C4" t="n">
-        <v>956.2629204377495</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="D4" t="n">
-        <v>956.2629204377495</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E4" t="n">
-        <v>808.0434241415117</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F4" t="n">
-        <v>808.0434241415117</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2197.588075445032</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>2197.588075445032</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>1954.248727670932</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.73345652166</v>
+        <v>1674.064279171236</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.021989129689</v>
+        <v>1392.352811779265</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.169585302202</v>
+        <v>1117.500407951778</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.605688748007</v>
+        <v>874.9365113975834</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.2629204377495</v>
+        <v>648.5937430873255</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1831.749379500454</v>
+        <v>404.3578448076699</v>
       </c>
       <c r="C5" t="n">
-        <v>1404.848649513754</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>981.5560286987545</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>555.5790888466121</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>130.4549070360123</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>130.156248665865</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>1090.853728201993</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>1764.655379315307</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>1931.072927593931</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1931.072927593931</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2604.874578707245</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2618.063619462288</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2260.574204588538</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2260.574204588538</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>2252.89460979669</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1847.55733975158</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>326.146107551374</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>515.5329466256644</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>1189.334597738979</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>1863.136248852293</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.136248852293</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>808.1047620756441</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C7" t="n">
-        <v>636.1321989545601</v>
+        <v>837.302184545315</v>
       </c>
       <c r="D7" t="n">
-        <v>636.1321989545601</v>
+        <v>673.9854116720857</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>507.7772058249392</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>335.9154315994996</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>169.6584618937317</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2017.687984891219</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>2017.687984891219</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.976517499248</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W7" t="n">
-        <v>1467.177395652162</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X7" t="n">
-        <v>1224.613499097968</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y7" t="n">
-        <v>998.2707307877097</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>876.6857867676539</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>449.785056780954</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>430.5328400063584</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>408.59630419462</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>387.5125264244243</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>387.2138680542769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>417.0520770886785</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1090.853728201993</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1764.655379315307</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>2266.345434084965</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2471.080834810296</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2113.591419936546</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.591419936546</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1701.871421104293</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.534151059184</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>326.146107551374</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>326.146107551374</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>999.9477586646882</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1673.749409778002</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>649.9991349576507</v>
+        <v>382.678994017478</v>
       </c>
       <c r="C10" t="n">
-        <v>649.9991349576507</v>
+        <v>210.706430896394</v>
       </c>
       <c r="D10" t="n">
-        <v>486.6823620844214</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>320.4741562372749</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>320.4741562372749</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2121.83929508725</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>1878.49994731315</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>1598.315498813454</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1316.604031421483</v>
       </c>
       <c r="W10" t="n">
-        <v>1212.452721225452</v>
+        <v>1041.751627593996</v>
       </c>
       <c r="X10" t="n">
-        <v>969.8888246712576</v>
+        <v>799.1877310398015</v>
       </c>
       <c r="Y10" t="n">
-        <v>840.1651036697162</v>
+        <v>572.8449627295436</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>940.446611191054</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>514.4696713389116</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>89.34548952831176</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>89.34548952831176</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>1374.82761136252</v>
+        <v>2356.615921272161</v>
       </c>
       <c r="N11" t="n">
-        <v>2048.629262475834</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.629262475834</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>433.5136365409612</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.315287654275</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.315287654275</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.315287654275</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
-        <v>1781.11693876759</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1781.11693876759</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.7379542660963</v>
+        <v>514.3219791407195</v>
       </c>
       <c r="C13" t="n">
-        <v>217.7653911450122</v>
+        <v>514.3219791407195</v>
       </c>
       <c r="D13" t="n">
-        <v>54.44861827178296</v>
+        <v>514.3219791407195</v>
       </c>
       <c r="E13" t="n">
-        <v>54.44861827178296</v>
+        <v>514.3219791407195</v>
       </c>
       <c r="F13" t="n">
-        <v>54.44861827178296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2128.898255335869</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1885.558907561769</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1605.374459062073</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1323.662991670102</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>1048.810587842615</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X13" t="n">
-        <v>806.2466912884199</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.903922978162</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1734.105213294634</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1307.204483307934</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>883.9118624929341</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>415.4757434162548</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>1130.984051391754</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>2060.609099011031</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>3064.895200430089</v>
       </c>
       <c r="N14" t="n">
-        <v>2075.853571611725</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>2559.290847631274</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2153.953577586164</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>61.8952612336948</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>652.3801878020344</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>1189.334597738979</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="M15" t="n">
-        <v>1189.334597738979</v>
+        <v>1208.573242241487</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>492.3979554997375</v>
+        <v>673.2155242095569</v>
       </c>
       <c r="C16" t="n">
-        <v>320.4253923786534</v>
+        <v>673.2155242095569</v>
       </c>
       <c r="D16" t="n">
-        <v>320.4253923786534</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="E16" t="n">
-        <v>154.217186531507</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
-        <v>154.217186531507</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>154.217186531507</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2211.527335338309</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2041.392287857444</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.052940083344</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1517.868491583648</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1236.157024191677</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>961.3046203641903</v>
+        <v>1142.12218907401</v>
       </c>
       <c r="X16" t="n">
-        <v>718.7407238099954</v>
+        <v>899.5582925198148</v>
       </c>
       <c r="Y16" t="n">
-        <v>492.3979554997375</v>
+        <v>673.2155242095569</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.5168264363576</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>345.8675501573982</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>345.8675501573982</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5692,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1830.869225946124</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1830.869225946124</v>
       </c>
       <c r="X19" t="n">
-        <v>913.0255634586812</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.6827951484232</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3959.47027938737</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4667.749558545297</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5996,19 +5998,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6069,22 +6071,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.799010768326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.799010768326</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.799010768326</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1210.799010768326</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1019.226866224298</v>
+        <v>750.5367205716725</v>
       </c>
       <c r="C28" t="n">
-        <v>847.2543031032136</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="D28" t="n">
-        <v>683.9375302299843</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>517.7293243828378</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>2234.863371020274</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.151903628303</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1678.299499800816</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1435.735603246621</v>
+        <v>750.5367205716725</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.392834936363</v>
+        <v>750.5367205716725</v>
       </c>
     </row>
     <row r="29">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>3306.448039710919</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>3306.448039710919</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>3934.79247639015</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1012.462104613637</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C31" t="n">
-        <v>840.4895414925531</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D31" t="n">
-        <v>677.1727686193238</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E31" t="n">
-        <v>510.9645627721774</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1027885467378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>172.8458188409699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.628073325703</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y31" t="n">
-        <v>1202.628073325703</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.6620294727279</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>603.6894663516439</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>440.3726934784146</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6889,19 +6891,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1716.446130441218</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1434.734663049246</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.734663049246</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.170766495052</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.8279981847936</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>903.7433331113961</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1833.368380730673</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.654482149731</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.905540636432</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1429.986740661465</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N36" t="n">
-        <v>1429.986740661465</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2119.408873334071</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2119.408873334071</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>2119.408873334071</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7175,22 +7177,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7248,22 +7250,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.275630082919</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>847.303066961835</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7372,10 +7374,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.493025844838</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.275630082919</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.743090736225</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.842360749525</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>918.7421318583365</v>
+        <v>2863.231426800693</v>
       </c>
       <c r="N41" t="n">
-        <v>918.7421318583365</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.543782971651</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.07600418556</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2464.07600418556</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2167.463089568478</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>1755.743090736225</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1755.743090736225</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>728.2502693850971</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>266.333914584758</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.522297910811</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.522297910811</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1716.669894083324</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1443.516935711176</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1443.516935711176</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1443.516935711176</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1181.780241018899</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>756.6560592082994</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>352.3169967977481</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L44" t="n">
-        <v>1402.051920498411</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M44" t="n">
-        <v>2075.853571611725</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2148.789099203062</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2618.063619462288</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>2618.063619462288</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2260.574204588538</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2260.574204588538</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1848.854205756285</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1443.516935711176</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>999.9477586646882</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>999.9477586646882</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N45" t="n">
-        <v>999.9477586646882</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="O45" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.726598204046</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.542149704351</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.830682312379</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="W46" t="n">
-        <v>1502.830682312379</v>
+        <v>4565.687972637132</v>
       </c>
       <c r="X46" t="n">
-        <v>1502.830682312379</v>
+        <v>4323.124076082937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1276.487914002121</v>
+        <v>4096.781307772679</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>425.4048178285041</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8061,19 +8063,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>214.4717271710004</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5297965142038</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>213.6990712821115</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>544.0372539149087</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>268.7645418748069</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>214.4717271710005</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>690.5396891392526</v>
+        <v>655.0126980493263</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>130.9671361986611</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>348.0046044727225</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>564.8932785697289</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>728.607001161029</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9246,10 +9248,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M18" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9410,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.2860653765454</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>729.034814152316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>657.863239903264</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>124.3756766890881</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>507.6330667855089</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>229.8472855996736</v>
+        <v>800.4794118994632</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M42" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>111.0632094482834</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>426.245640555379</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>302.0635347567728</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>246.0941335456345</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.46725993656235</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>157.3046096181488</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>21.1100539737034</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.55037112485553</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>106.2309441183567</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>200.0421967183575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>230.0087579140026</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>7.569742547917798</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>72.5206314261372</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24889,7 +24891,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.6835682228509</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>6.759898196019378</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.9941188228558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>98.78065073174497</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>59.6906435631583</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>79.23215548632211</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>162.5978427082672</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.79471755090444</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>53.328125375718</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>703261.6350857073</v>
+        <v>698361.3176961647</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>703261.6350857073</v>
+        <v>698361.3176961647</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703261.6350857073</v>
+        <v>698361.3176961647</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472416.2741267763</v>
+        <v>693099.740329089</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472416.2741267761</v>
+        <v>693099.7403290891</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703864.7705195484</v>
+        <v>703864.7705195486</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>703864.7705195486</v>
+        <v>703864.7705195484</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703864.7705195484</v>
+        <v>703864.7705195486</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>472416.2741267761</v>
+        <v>693099.7403290892</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472416.2741267761</v>
+        <v>693099.7403290891</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.667506977</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.667506977</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.667506977</v>
       </c>
       <c r="E2" t="n">
-        <v>235779.2447520151</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
         <v>351269.0019609046</v>
@@ -26332,13 +26334,13 @@
         <v>351269.0019609046</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609045</v>
       </c>
       <c r="J2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="K2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="L2" t="n">
         <v>351269.0019609046</v>
@@ -26347,13 +26349,13 @@
         <v>351269.0019609046</v>
       </c>
       <c r="N2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068671</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068673</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.065515899</v>
       </c>
       <c r="C4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="F4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
@@ -26445,19 +26447,19 @@
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.3388391534</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104719.1270713621</v>
+        <v>-72445.38246108737</v>
       </c>
       <c r="C6" t="n">
-        <v>123368.1766923218</v>
+        <v>113959.3509536499</v>
       </c>
       <c r="D6" t="n">
-        <v>123368.1766923219</v>
+        <v>113959.3509536498</v>
       </c>
       <c r="E6" t="n">
-        <v>145867.4042333692</v>
+        <v>-8864.711156879639</v>
       </c>
       <c r="F6" t="n">
-        <v>145867.4042333693</v>
+        <v>198567.5764596813</v>
       </c>
       <c r="G6" t="n">
-        <v>37187.1917124251</v>
+        <v>193512.6904391297</v>
       </c>
       <c r="H6" t="n">
         <v>201138.3125226112</v>
       </c>
       <c r="I6" t="n">
-        <v>201138.3125226112</v>
+        <v>201138.3125226111</v>
       </c>
       <c r="J6" t="n">
-        <v>23061.38403383139</v>
+        <v>55604.64258779475</v>
       </c>
       <c r="K6" t="n">
-        <v>201138.3125226112</v>
+        <v>201138.3125226113</v>
       </c>
       <c r="L6" t="n">
         <v>201138.3125226112</v>
       </c>
       <c r="M6" t="n">
+        <v>28007.82131697168</v>
+      </c>
+      <c r="N6" t="n">
         <v>201138.3125226112</v>
       </c>
-      <c r="N6" t="n">
-        <v>201138.3125226111</v>
-      </c>
       <c r="O6" t="n">
-        <v>145867.4042333693</v>
+        <v>198567.5764596812</v>
       </c>
       <c r="P6" t="n">
-        <v>145867.4042333693</v>
+        <v>198567.5764596815</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>254.487043194528</v>
+        <v>34.71835988167317</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27545,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>17.80882245539954</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.51828193252775</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>128.3161759654049</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>254.4870431945278</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>117.2205539080146</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9927491605971</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>110.2584035040798</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>66.39245920468156</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.65285683562948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>388.01385847248</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34781,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>191.2998374487782</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>168.098533614772</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>191.2998374487782</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>506.7576310804626</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>191.2998374487783</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>653.1084262398208</v>
+        <v>617.5814351498946</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>108.4520494844315</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>318.584644987136</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>542.3781918554993</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,10 +35968,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M18" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391563</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36130,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.1613907719473</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>634.6913501810418</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>86.80031487885682</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>192.4160227002418</v>
+        <v>763.0481490000315</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>73.67225009225932</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>403.0737508331568</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987301.385862855</v>
+        <v>986583.3957479972</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760739</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>118.2123227373708</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>386.1545801108206</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>180.4755406499955</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.04994524717083</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>294.3155467214279</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>155.8893233795038</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>104.9037564455528</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.13775189891257</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>28.66548829251649</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.77901812020955</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>102.0412378013749</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>102.041237801374</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>342.2257519556457</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>114.7992701710632</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>30.13506956119797</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1903,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2007,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>209.2324091128526</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>226.5878864637974</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031825</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.51998788130948</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>77.34040729634128</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>237.1499038289934</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>232.5685150407351</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>141.0788638521123</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G37" t="n">
-        <v>96.44420510686395</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>110.5621939267151</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3757,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>101.9929615813387</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>129.2380369958386</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>110.7442840088803</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4039,7 +4039,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>937.8383686740289</v>
+        <v>1842.637416540946</v>
       </c>
       <c r="C2" t="n">
-        <v>914.9780427277331</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>895.7258259531374</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>873.789290141399</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4336,46 +4336,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1763.054543461766</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1366.663193762113</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X2" t="n">
-        <v>954.9431949298605</v>
+        <v>1859.742242796777</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.6463289251549</v>
+        <v>1858.445376792072</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C4" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D4" t="n">
-        <v>648.5937430873255</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2197.588075445032</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2197.588075445032</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1954.248727670932</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1674.064279171236</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1392.352811779265</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1117.500407951778</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>874.9365113975834</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="Y4" t="n">
-        <v>648.5937430873255</v>
+        <v>974.6885374882575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>404.3578448076699</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1229.54347914431</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>824.2062090992</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1009.274747666399</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C7" t="n">
-        <v>837.302184545315</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D7" t="n">
-        <v>673.9854116720857</v>
+        <v>150.4616153982907</v>
       </c>
       <c r="E7" t="n">
-        <v>507.7772058249392</v>
+        <v>150.4616153982907</v>
       </c>
       <c r="F7" t="n">
-        <v>335.9154315994996</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>169.6584618937317</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1943.199785070404</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1668.347381242917</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>1425.783484688723</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y7" t="n">
-        <v>1199.440716378465</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>136.0244524552342</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8980050821372</v>
+        <v>116.7722356806385</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>94.83569986890012</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>73.75192209870443</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>73.45326372855712</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4810,22 +4810,22 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175367</v>
+        <v>174.692738652656</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>838.3748437825398</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.678994017478</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>210.706430896394</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>210.706430896394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2121.83929508725</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1878.49994731315</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.315498813454</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1316.604031421483</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1041.751627593996</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>799.1877310398015</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.8449627295436</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464006</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2356.615921272161</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>3332.866979758862</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4178.011629909674</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5086,7 +5086,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L12" t="n">
-        <v>303.0855804095302</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="M12" t="n">
-        <v>303.0855804095302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
-        <v>303.0855804095302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.566858421002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.3219791407195</v>
+        <v>438.2577138472205</v>
       </c>
       <c r="C13" t="n">
-        <v>514.3219791407195</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="D13" t="n">
-        <v>514.3219791407195</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="E13" t="n">
-        <v>514.3219791407195</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2177.418014916993</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1934.078667142893</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1653.894218643197</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1372.182751251226</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051723</v>
+        <v>1097.330347423739</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509774</v>
+        <v>854.7664508695441</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407195</v>
+        <v>628.4236825592861</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>415.4757434162548</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>1130.984051391754</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2060.609099011031</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>3064.895200430089</v>
+        <v>2608.809720925906</v>
       </c>
       <c r="N14" t="n">
-        <v>4041.14625891679</v>
+        <v>3585.060779412607</v>
       </c>
       <c r="O14" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P14" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
         <v>4886.290909067602</v>
@@ -5311,19 +5311,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>1208.573242241487</v>
+        <v>852.7780374834547</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.573242241487</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>673.2155242095569</v>
+        <v>773.4850248045109</v>
       </c>
       <c r="C16" t="n">
-        <v>673.2155242095569</v>
+        <v>601.5124616834269</v>
       </c>
       <c r="D16" t="n">
-        <v>509.8987513363276</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="E16" t="n">
-        <v>509.8987513363276</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1142.12218907401</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>899.5582925198148</v>
+        <v>999.8277931147688</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.2155242095569</v>
+        <v>773.4850248045109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4714.375569412722</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338095</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338095</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>2112.580693338095</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V19" t="n">
-        <v>1830.869225946124</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W19" t="n">
-        <v>1830.869225946124</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5779,10 +5779,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5834,19 +5834,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>304.4384587492827</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>138.1814890435149</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.555503974472</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1875.844036582501</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.991632755014</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X25" t="n">
-        <v>1358.427736200819</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6308,22 +6308,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>750.5367205716725</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C28" t="n">
-        <v>578.5641574505885</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2043.170383415933</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1762.985934916238</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1762.985934916238</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1488.13353108875</v>
       </c>
       <c r="X28" t="n">
-        <v>750.5367205716725</v>
+        <v>1245.569634534556</v>
       </c>
       <c r="Y28" t="n">
-        <v>750.5367205716725</v>
+        <v>1019.226866224298</v>
       </c>
     </row>
     <row r="29">
@@ -6545,22 +6545,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2099.621208542961</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.436760043265</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.725292651294</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.872888823807</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7019,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>199.7211024026608</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7204,7 +7204,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7795368464006</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,19 +7420,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2863.231426800693</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3839.482485287394</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7496,19 +7496,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>303.0855804095302</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>303.0855804095302</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>303.0855804095302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1192.566858421002</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.3296712223457</v>
+        <v>646.0470275689677</v>
       </c>
       <c r="C43" t="n">
-        <v>369.3571081012617</v>
+        <v>646.0470275689677</v>
       </c>
       <c r="D43" t="n">
-        <v>266.333914584758</v>
+        <v>646.0470275689677</v>
       </c>
       <c r="E43" t="n">
-        <v>266.333914584758</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F43" t="n">
-        <v>266.333914584758</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>100.0769448789901</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518018</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.966176018322</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.254708626351</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W43" t="n">
-        <v>1200.402304798864</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="X43" t="n">
-        <v>957.8384082446693</v>
+        <v>1062.555764591291</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.4956399344113</v>
+        <v>836.2129962810334</v>
       </c>
     </row>
     <row r="44">
@@ -7651,13 +7651,13 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7678,13 +7678,13 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
         <v>3775.38136270537</v>
@@ -7736,16 +7736,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.063482855035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1156.063482855035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3906.615339060613</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>3734.642775939529</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>4786.673583155813</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>4786.673583155813</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>4786.673583155813</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>4565.687972637132</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>4323.124076082937</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>4096.781307772679</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,16 +7993,16 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8063,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>463.1564485244919</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8458,16 +8458,16 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>268.7645418748069</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>173.498939971083</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>655.0126980493263</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>227.5743145228559</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692493</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>348.0046044727225</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>543.487789803719</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8947,7 +8947,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>728.607001161029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9169,13 +9169,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>440.9328573103608</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>60.75701611917185</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9263,7 +9263,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9482,7 +9482,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,13 +9491,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>325.5054530825915</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,19 +9883,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10193,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>800.4794118994632</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>66.39245920468245</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>73.42412869296902</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>157.3046096181488</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>210.0031880274549</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>68.15019490184619</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>13.55037112485553</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183567</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>106.8383179256177</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>200.0421967183575</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.756050467365583</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.569742547917798</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>20.60474129238469</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G37" t="n">
-        <v>68.15019490184623</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>59.69064356315805</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>59.6906435631583</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>35.30808679283635</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693099.740329089</v>
+        <v>693099.7403290891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693099.7403290891</v>
+        <v>693099.7403290892</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703864.7705195486</v>
+        <v>703864.7705195484</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>703864.7705195486</v>
+        <v>703864.7705195484</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703864.7705195484</v>
+        <v>703864.7705195486</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>364026.667506977</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="E2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="F2" t="n">
         <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="H2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="I2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="J2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="K2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
         <v>351269.0019609046</v>
       </c>
       <c r="M2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="N2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="O2" t="n">
-        <v>345897.3934068671</v>
+        <v>345897.3934068674</v>
       </c>
       <c r="P2" t="n">
-        <v>345897.3934068673</v>
+        <v>345897.3934068672</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
         <v>71271.33883915341</v>
@@ -26432,10 +26432,10 @@
         <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="H4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.62724986373</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986371</v>
@@ -26444,13 +26444,13 @@
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
@@ -26459,7 +26459,7 @@
         <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
-        <v>71271.3388391534</v>
+        <v>71271.33883915341</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72445.38246108737</v>
+        <v>-72445.38246108743</v>
       </c>
       <c r="C6" t="n">
-        <v>113959.3509536499</v>
+        <v>113959.3509536498</v>
       </c>
       <c r="D6" t="n">
-        <v>113959.3509536498</v>
+        <v>113959.35095365</v>
       </c>
       <c r="E6" t="n">
-        <v>-8864.711156879639</v>
+        <v>-8937.228253279962</v>
       </c>
       <c r="F6" t="n">
-        <v>198567.5764596813</v>
+        <v>198495.0593632809</v>
       </c>
       <c r="G6" t="n">
-        <v>193512.6904391297</v>
+        <v>193461.6597769456</v>
       </c>
       <c r="H6" t="n">
-        <v>201138.3125226112</v>
+        <v>201087.2818604271</v>
       </c>
       <c r="I6" t="n">
-        <v>201138.3125226111</v>
+        <v>201087.2818604271</v>
       </c>
       <c r="J6" t="n">
-        <v>55604.64258779475</v>
+        <v>55553.61192561041</v>
       </c>
       <c r="K6" t="n">
-        <v>201138.3125226113</v>
+        <v>201087.2818604269</v>
       </c>
       <c r="L6" t="n">
-        <v>201138.3125226112</v>
+        <v>201087.2818604269</v>
       </c>
       <c r="M6" t="n">
-        <v>28007.82131697168</v>
+        <v>27956.79065478743</v>
       </c>
       <c r="N6" t="n">
-        <v>201138.3125226112</v>
+        <v>201087.2818604271</v>
       </c>
       <c r="O6" t="n">
-        <v>198567.5764596812</v>
+        <v>198495.0593632811</v>
       </c>
       <c r="P6" t="n">
-        <v>198567.5764596815</v>
+        <v>198495.0593632809</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>304.4193999494621</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.71835988167317</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>7.788768374949484</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.51828193252775</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>128.3161759654049</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>245.3945739651547</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.23940003763241</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>117.2205539080146</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>266.224206448189</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27906,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.504879224449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>66.39245920468156</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>440.0596680121639</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>617.5814351498946</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>205.0592278086263</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>377.7345989569213</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>318.584644987136</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35667,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>404.8081827057627</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>38.24192940494229</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391563</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>302.4086725702635</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,19 +36603,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>763.0481490000315</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
